--- a/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1984842E-0415-4095-BB53-F15C015CE0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DBD167-9F6B-47A9-85DF-8D2A95B32BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A46BBD55-FD4F-42C2-AFAA-8C5099A456EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F2F38FA-E932-4E4E-A240-AAA39C30CB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>93,56%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,16 +194,16 @@
     <t>93,95%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>91,63%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>95,14%</t>
@@ -212,19 +212,19 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>6,52%</t>
@@ -233,16 +233,16 @@
     <t>4,86%</t>
   </si>
   <si>
-    <t>8,37%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,7 +308,10 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>94,96%</t>
@@ -317,28 +320,31 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>96,27%</t>
+    <t>96,11%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -347,10 +353,10 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,37 +365,43 @@
     <t>91,23%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -398,28 +410,31 @@
     <t>91,48%</t>
   </si>
   <si>
-    <t>93,7%</t>
+    <t>93,77%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>6,3%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -428,16 +443,19 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>8,63%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEBD0E8-E2FC-4996-B39D-21786C7D2341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998A61C-65C1-4565-89AB-03EA1562B025}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -973,7 +991,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>289899</v>
+        <v>289900</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1075,7 +1093,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>326391</v>
+        <v>326392</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1283,7 +1301,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="7">
-        <v>505979</v>
+        <v>505980</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1385,7 +1403,7 @@
         <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>538575</v>
+        <v>538576</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1602,7 +1620,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>901</v>
@@ -1611,13 +1629,13 @@
         <v>540389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1474</v>
@@ -1626,13 +1644,13 @@
         <v>1061171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1665,13 @@
         <v>45192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -1662,13 +1680,13 @@
         <v>28671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -1677,13 +1695,13 @@
         <v>73863</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1769,13 @@
         <v>575006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1356</v>
@@ -1766,13 +1784,13 @@
         <v>839875</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2202</v>
@@ -1784,10 +1802,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1820,13 @@
         <v>55273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -1817,13 +1835,13 @@
         <v>67361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -1832,13 +1850,13 @@
         <v>122634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1924,13 @@
         <v>2913775</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>4601</v>
@@ -1921,13 +1939,13 @@
         <v>3284536</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>7492</v>
@@ -1936,13 +1954,13 @@
         <v>6198311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1975,13 @@
         <v>232313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -1972,13 +1990,13 @@
         <v>252022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>594</v>
@@ -1987,13 +2005,13 @@
         <v>484334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DBD167-9F6B-47A9-85DF-8D2A95B32BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E091CE-F271-467C-B1D1-1FA4212E0E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F2F38FA-E932-4E4E-A240-AAA39C30CB7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F30B6A04-D86B-4129-AF4C-C8CC9B87A987}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A998A61C-65C1-4565-89AB-03EA1562B025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB9135-8E14-4D7F-AEF5-84B4512A16FD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E091CE-F271-467C-B1D1-1FA4212E0E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D2AA43-048E-4B48-9753-4B9AFF11DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F30B6A04-D86B-4129-AF4C-C8CC9B87A987}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E30F590F-03F0-4792-A092-56BC5844BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,169 @@
     <t>93,56%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>80,84%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>8,96%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,10 +308,7 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>89,65%</t>
   </si>
   <si>
     <t>94,96%</t>
@@ -320,31 +317,28 @@
     <t>93,43%</t>
   </si>
   <si>
-    <t>96,11%</t>
+    <t>96,27%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>10,35%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,73%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -353,10 +347,10 @@
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,43 +359,37 @@
     <t>91,23%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>92,62%</t>
@@ -410,31 +398,28 @@
     <t>91,48%</t>
   </si>
   <si>
-    <t>93,77%</t>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -443,19 +428,16 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>8,63%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DB9135-8E14-4D7F-AEF5-84B4512A16FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEADB6C8-205D-4CC0-9CE8-62994835E4B6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -991,7 +973,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>289900</v>
+        <v>289899</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1093,7 +1075,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>326392</v>
+        <v>326391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1301,7 +1283,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="7">
-        <v>505980</v>
+        <v>505979</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1403,7 +1385,7 @@
         <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>538576</v>
+        <v>538575</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1620,7 +1602,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
         <v>901</v>
@@ -1629,13 +1611,13 @@
         <v>540389</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1474</v>
@@ -1644,13 +1626,13 @@
         <v>1061171</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1647,13 @@
         <v>45192</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -1680,13 +1662,13 @@
         <v>28671</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -1695,13 +1677,13 @@
         <v>73863</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1751,13 @@
         <v>575006</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1356</v>
@@ -1784,13 +1766,13 @@
         <v>839875</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>2202</v>
@@ -1802,10 +1784,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1802,13 @@
         <v>55273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -1835,13 +1817,13 @@
         <v>67361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>197</v>
@@ -1850,13 +1832,13 @@
         <v>122634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1906,13 @@
         <v>2913775</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>4601</v>
@@ -1939,13 +1921,13 @@
         <v>3284536</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>7492</v>
@@ -1954,13 +1936,13 @@
         <v>6198311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1957,13 @@
         <v>232313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -1990,13 +1972,13 @@
         <v>252022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>594</v>
@@ -2005,13 +1987,13 @@
         <v>484334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2049,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D2AA43-048E-4B48-9753-4B9AFF11DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{225B76C9-A13C-4D5B-B793-77E384301911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E30F590F-03F0-4792-A092-56BC5844BFF6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D2EC3674-0A59-409F-A5B8-8ED9FFE53EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -65,379 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEADB6C8-205D-4CC0-9CE8-62994835E4B6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40133035-A902-4EF8-897F-B9114DCFD2B7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -973,7 +1042,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>289899</v>
+        <v>311136</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -988,7 +1057,7 @@
         <v>168</v>
       </c>
       <c r="I4" s="7">
-        <v>289573</v>
+        <v>254017</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1003,7 +1072,7 @@
         <v>301</v>
       </c>
       <c r="N4" s="7">
-        <v>579472</v>
+        <v>565152</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1024,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>36492</v>
+        <v>40874</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1039,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>22841</v>
+        <v>20897</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>59333</v>
+        <v>61772</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,7 +1144,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="7">
-        <v>326391</v>
+        <v>352010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1090,7 +1159,7 @@
         <v>184</v>
       </c>
       <c r="I6" s="7">
-        <v>312414</v>
+        <v>274914</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1105,7 +1174,7 @@
         <v>332</v>
       </c>
       <c r="N6" s="7">
-        <v>638805</v>
+        <v>626924</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1128,7 +1197,7 @@
         <v>263</v>
       </c>
       <c r="D7" s="7">
-        <v>367091</v>
+        <v>364367</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1143,7 +1212,7 @@
         <v>403</v>
       </c>
       <c r="I7" s="7">
-        <v>430191</v>
+        <v>393627</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1158,7 +1227,7 @@
         <v>666</v>
       </c>
       <c r="N7" s="7">
-        <v>797281</v>
+        <v>757994</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1179,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>25256</v>
+        <v>26290</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1194,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>45314</v>
+        <v>98138</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1209,7 +1278,7 @@
         <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>70571</v>
+        <v>124428</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,7 +1299,7 @@
         <v>278</v>
       </c>
       <c r="D9" s="7">
-        <v>392347</v>
+        <v>390657</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1245,7 +1314,7 @@
         <v>434</v>
       </c>
       <c r="I9" s="7">
-        <v>475505</v>
+        <v>491765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1329,7 @@
         <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>867852</v>
+        <v>882422</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1283,7 +1352,7 @@
         <v>483</v>
       </c>
       <c r="D10" s="7">
-        <v>505979</v>
+        <v>486065</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1298,7 +1367,7 @@
         <v>754</v>
       </c>
       <c r="I10" s="7">
-        <v>524922</v>
+        <v>488335</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1313,7 +1382,7 @@
         <v>1237</v>
       </c>
       <c r="N10" s="7">
-        <v>1030902</v>
+        <v>974400</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1334,7 +1403,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>32596</v>
+        <v>32380</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1349,7 +1418,7 @@
         <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>36632</v>
+        <v>34470</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1364,7 +1433,7 @@
         <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>69228</v>
+        <v>66850</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,7 +1454,7 @@
         <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>538575</v>
+        <v>518445</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1469,7 @@
         <v>812</v>
       </c>
       <c r="I12" s="7">
-        <v>561554</v>
+        <v>522805</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1484,7 @@
         <v>1331</v>
       </c>
       <c r="N12" s="7">
-        <v>1100130</v>
+        <v>1041250</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1438,7 +1507,7 @@
         <v>593</v>
       </c>
       <c r="D13" s="7">
-        <v>655017</v>
+        <v>823410</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1453,7 +1522,7 @@
         <v>1019</v>
       </c>
       <c r="I13" s="7">
-        <v>659586</v>
+        <v>608025</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1468,7 +1537,7 @@
         <v>1612</v>
       </c>
       <c r="N13" s="7">
-        <v>1314603</v>
+        <v>1431434</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1489,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>37502</v>
+        <v>36067</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1504,7 +1573,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>51203</v>
+        <v>48096</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1519,7 +1588,7 @@
         <v>121</v>
       </c>
       <c r="N14" s="7">
-        <v>88705</v>
+        <v>84164</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,7 +1609,7 @@
         <v>633</v>
       </c>
       <c r="D15" s="7">
-        <v>692519</v>
+        <v>859477</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1624,7 @@
         <v>1100</v>
       </c>
       <c r="I15" s="7">
-        <v>710789</v>
+        <v>656121</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1639,7 @@
         <v>1733</v>
       </c>
       <c r="N15" s="7">
-        <v>1403308</v>
+        <v>1515598</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1593,7 +1662,7 @@
         <v>573</v>
       </c>
       <c r="D16" s="7">
-        <v>520782</v>
+        <v>487250</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1602,37 +1671,37 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>901</v>
       </c>
       <c r="I16" s="7">
-        <v>540389</v>
+        <v>495658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1474</v>
       </c>
       <c r="N16" s="7">
-        <v>1061171</v>
+        <v>982908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,46 +1713,46 @@
         <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>45192</v>
+        <v>43138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>28671</v>
+        <v>26930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>73863</v>
+        <v>70068</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1764,7 @@
         <v>624</v>
       </c>
       <c r="D18" s="7">
-        <v>565974</v>
+        <v>530388</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1779,7 @@
         <v>955</v>
       </c>
       <c r="I18" s="7">
-        <v>569060</v>
+        <v>522588</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1794,7 @@
         <v>1579</v>
       </c>
       <c r="N18" s="7">
-        <v>1135034</v>
+        <v>1052976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1739,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>846</v>
+        <v>487</v>
       </c>
       <c r="D19" s="7">
-        <v>575006</v>
+        <v>314298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1356</v>
+        <v>711</v>
       </c>
       <c r="I19" s="7">
-        <v>839875</v>
+        <v>551443</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>2202</v>
+        <v>1198</v>
       </c>
       <c r="N19" s="7">
-        <v>1414881</v>
+        <v>865741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>55273</v>
+        <v>25775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>67361</v>
+        <v>26009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>122634</v>
+        <v>51784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>925</v>
+        <v>526</v>
       </c>
       <c r="D21" s="7">
-        <v>630279</v>
+        <v>340073</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1862,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1474</v>
+        <v>762</v>
       </c>
       <c r="I21" s="7">
-        <v>907236</v>
+        <v>577452</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1877,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2399</v>
+        <v>1288</v>
       </c>
       <c r="N21" s="7">
-        <v>1537515</v>
+        <v>917525</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1894,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2891</v>
+        <v>359</v>
       </c>
       <c r="D22" s="7">
-        <v>2913775</v>
+        <v>221729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>4601</v>
+        <v>645</v>
       </c>
       <c r="I22" s="7">
-        <v>3284536</v>
+        <v>313958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>7492</v>
+        <v>1004</v>
       </c>
       <c r="N22" s="7">
-        <v>6198311</v>
+        <v>535688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>232313</v>
+        <v>26795</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>252022</v>
+        <v>35444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>594</v>
+        <v>107</v>
       </c>
       <c r="N23" s="7">
-        <v>484334</v>
+        <v>62239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>399</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248524</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>712</v>
+      </c>
+      <c r="I24" s="7">
+        <v>349402</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1111</v>
+      </c>
+      <c r="N24" s="7">
+        <v>597927</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2891</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3008256</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4601</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3105063</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7492</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6113319</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>236</v>
+      </c>
+      <c r="D26" s="7">
+        <v>231318</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>358</v>
+      </c>
+      <c r="I26" s="7">
+        <v>289985</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>594</v>
+      </c>
+      <c r="N26" s="7">
+        <v>521303</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3127</v>
       </c>
-      <c r="D24" s="7">
-        <v>3146088</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3239574</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4959</v>
       </c>
-      <c r="I24" s="7">
-        <v>3536558</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3395048</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8086</v>
       </c>
-      <c r="N24" s="7">
-        <v>6682645</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>6634622</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
